--- a/Översikt DOROTEA.xlsx
+++ b/Översikt DOROTEA.xlsx
@@ -575,7 +575,7 @@
         <v>45813</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>45800.51078703703</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>45412</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>45785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         <v>45614</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45428</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45629</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>44853</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45356</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>45453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45848.61557870371</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44957</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>45820.65403935185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>45063</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45981.57350694444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>45202</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45225</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>45890</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45900.46912037037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>44902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>45937.63671296297</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>45840.67800925926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>45302</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>45616.89516203704</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>45629</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>45491.39454861111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44878.6125462963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>45624</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>44953</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>45471</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44855</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45831</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>45622.59461805555</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>45534</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>45938.49196759259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>45583</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45103</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>46003</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>45629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>44526</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45198</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>44509</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>44810.9431712963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44271</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44351</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44351</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44834.76478009259</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44351</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44725</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44614</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>44859</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>44852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>44845</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>44351</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>44851</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>44383</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44336</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44336</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44264.94361111111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>44337</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44336</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44294</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44465</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44465.40667824074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44336</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44465.4134375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>44838</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>45630</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>45142.92372685186</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>44974.38387731482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>45170</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>45622</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>45556.34417824074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>44931.92650462963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>45330</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>45158.94190972222</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>45721</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>45257.97371527777</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>45482.92789351852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>45036.89533564815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44876</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>45097</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>45764.59451388889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>45446.94887731481</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45700.5734837963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>45125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45125</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44889</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>45742.48995370371</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>45659</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>45799</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>45714.40652777778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45677.59814814815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45799</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>45803.5733912037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>45803.63585648148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>45803.38633101852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>45140</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>45803.55297453704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>45800.67747685185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>45692.34452546296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44931.92638888889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>45803.55256944444</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45803.5528125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45800.57395833333</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45800.61635416667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>45800.38581018519</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>45805.65696759259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>45674.57372685185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>45807.47043981482</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>45807.40659722222</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>45807.47040509259</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>45807</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>45418</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>45742</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>45807</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>45811</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>45664</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>45742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>45811</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>45813</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>45889.53192129629</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>45889.53162037037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9942,7 +9942,7 @@
         <v>45812.44833333333</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>45351.98571759259</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45813.55248842593</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>45890.63614583333</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>45891.46913194445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>45547</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>45735</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>45817.59523148148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>44860</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>45461</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>45817.38577546296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>45893.65675925926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>45894.71912037037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>45036</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>45742.42782407408</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>45817.6778587963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>45351.98583333333</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>45897</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>45898.53164351852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>45818.71905092592</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>45890</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>45818.36496527777</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>45898.42778935185</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>45898</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>45903.36497685185</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>45903.40694444445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>45903.36555555555</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>45198</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>45505.95497685186</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45903.34480324074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>45905.59423611111</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>45852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>45852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>45673.67822916667</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>45904.61569444444</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45904.61540509259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>45904.34472222222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>45908.53167824074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>45228</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45228</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45824.38880787037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45629.3558449074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>45824</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>44417</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>45912.65726851852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12687,7 +12687,7 @@
         <v>45915.61515046296</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>45897</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44582.93300925926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>45915.61606481481</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>45912.67747685185</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45912.42776620371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>45680</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>45915</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>45917.42748842593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>45916.34527777778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13297,7 +13297,7 @@
         <v>45916.40681712963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>45916.44855324074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13421,7 +13421,7 @@
         <v>45916.49549768519</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>45917.42766203704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>45917.92033564814</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>45586.32023148148</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44376.93447916667</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>45457.96494212963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>45463.94417824074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>45845</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>45013</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>45582.38579861111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>45845</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>45923.4805787037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44742</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>45720.61486111111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>45833.61688657408</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>45833.59679398148</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>45678.66666666666</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>45834.59436342592</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>45356</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>45471.9444212963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>45553</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>45834.55252314815</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>45614.69854166666</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         <v>44431</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>45614</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>45772.69824074074</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>45331</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>45936.40789351852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>45936.40791666666</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>45840.67768518518</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15278,7 +15278,7 @@
         <v>45840.67862268518</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>45936.3863425926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>45938.678125</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45937.64037037037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>45840.46914351852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>45937.63645833333</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44979</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>45939.36525462963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>45769</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>45769</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>45140.96399305556</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>45842.44846064815</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>45843.36505787037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>45268.9262037037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>45945.47358796297</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>45944.56261574074</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45847.40707175926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>45847.40681712963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>45846.26190972222</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>45847.6568287037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>45846</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>45539</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>45848.42844907408</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>45848.42857638889</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>45849.4284837963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>45849.42844907408</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>45574</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>45946.61502314815</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>45463</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>45142.92407407407</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>45852.53199074074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44888</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17222,7 +17222,7 @@
         <v>45854.38577546296</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>45855.40684027778</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>45855.53179398148</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>45855</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>45855</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>45855</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>45855</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>45854.40681712963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>45855</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44998</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>45272</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>45859.44861111111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>45859.44880787037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17993,7 +17993,7 @@
         <v>45953.69837962963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>45693</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>45953.38614583333</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>45483.96839120371</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>45757.69819444444</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>45866.57357638889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>45867.3653587963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45098</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45866.49025462963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>45866.61515046296</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>45867.36557870371</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>45954.36586805555</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>45873</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>45705.3462037037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44974.38841435185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>45469.92811342593</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>45959.57366898148</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>45770.67743055556</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>45874.42888888889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>45874.38578703703</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>45110</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19317,7 +19317,7 @@
         <v>45874.64811342592</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>45874.6445949074</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>45874.38576388889</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
         <v>45875.5525462963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>45874.5946875</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>45876.4483912037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>45877</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>45877.61532407408</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>45639.34640046296</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>45672</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>45877.61496527777</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>45253</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         <v>45876.49045138889</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>45876.4909837963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20165,7 +20165,7 @@
         <v>45876.49138888889</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>45876.49122685185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>45876.49024305555</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20351,7 +20351,7 @@
         <v>45876.51096064815</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>45642</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>45876.38582175926</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44971</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>45678.66665509259</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>45965.59481481482</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45505.95542824074</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>45962.78836805555</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>45882.49087962963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>45720.61511574074</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45966.34535879629</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21008,7 +21008,7 @@
         <v>45966.34540509259</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         <v>45971.40711805555</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21127,7 +21127,7 @@
         <v>45971</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>45190.92549768519</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
         <v>45882.49097222222</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>45971.63633101852</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>45429.9359375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44925</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21479,7 +21479,7 @@
         <v>45972.46931712963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>45882</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>45882.49069444444</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>45882</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>45883.34537037037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21774,7 +21774,7 @@
         <v>45883.36519675926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>45882.49106481481</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>45712</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45975.34542824074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45975.4071412037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>45975.49017361111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>45975.61641203704</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>45975.34587962963</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22265,7 +22265,7 @@
         <v>45069</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22322,7 +22322,7 @@
         <v>45614</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>45978</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22436,7 +22436,7 @@
         <v>45979.34461805555</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>45977.6983912037</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45642.63332175926</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>45978.40677083333</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>45978</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22736,7 +22736,7 @@
         <v>46010</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22793,7 +22793,7 @@
         <v>45224.96391203703</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45713.61494212963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22917,7 +22917,7 @@
         <v>45978</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22974,7 +22974,7 @@
         <v>44900.95491898148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>45978</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45978</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45978</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>45978</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45726.51075231482</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45981.38592592593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>45981</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>45980.40675925926</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>45980.57395833333</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>45980.57414351852</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>45217</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>45981.53181712963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>45981.51090277778</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>45981</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>45981.49009259259</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23931,7 +23931,7 @@
         <v>44974</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
         <v>45161.94466435185</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44956</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>45982.34423611111</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24174,7 +24174,7 @@
         <v>45740.84127314815</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24231,7 +24231,7 @@
         <v>45982.46956018519</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>45574.51318287037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45986.42753472222</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45988</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45988</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45561.34652777778</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
         <v>46030.47678240741</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24645,7 +24645,7 @@
         <v>45764</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24707,7 +24707,7 @@
         <v>45988.38663194444</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>45642</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>45642.6359837963</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>45534</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24945,7 +24945,7 @@
         <v>45988.40792824074</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>45993.42767361111</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>45993.40670138889</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45491</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44568.92145833333</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>45729.36533564814</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>45862</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>46036.40693287037</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         <v>46036.67759259259</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>45770.61537037037</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>45995</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>44756.38809027777</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45996</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>46038.46935185185</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>45516</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>46029</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>44980</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45981</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45475</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>46042.46931712963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>45448.94579861111</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>46043.6028125</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>45071</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>46042.67120370371</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>45764.61490740741</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26440,7 +26440,7 @@
         <v>45678.66674768519</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>46042.34465277778</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>45740.67822916667</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>44994</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>45399</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>45611</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>45672.43625</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>45755</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>44889</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>45978</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>46003.34439814815</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>46003</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>46003</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44524</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45520</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>45733.67770833334</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>45799</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>46007.44863425926</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>46007.40666666667</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>44960</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>46047.59396990741</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>45681.36523148148</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>45747</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>46036</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>46007.4487037037</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45771</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>45755</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>45600</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>46007.46914351852</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>46007.44877314815</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45552</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>45149</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>44979</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>45644</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>46009.46942129629</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>45539</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>46045</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>46051.59429398148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>45796</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28738,7 +28738,7 @@
         <v>46009.36521990741</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28800,7 +28800,7 @@
         <v>46051.59449074074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>44761</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>46054.53177083333</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>45036</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>46013.66325231481</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>46051</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29157,7 +29157,7 @@
         <v>46010</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29214,7 +29214,7 @@
         <v>46010.59421296296</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29271,7 +29271,7 @@
         <v>46055.63590277778</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45723.57409722222</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>45392.95734953704</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44719.94283564815</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>45169</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>45169.9409837963</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45169.94105324074</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29705,7 +29705,7 @@
         <v>45677</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>45202</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>45169.94084490741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29886,7 +29886,7 @@
         <v>44956</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>44824</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>45624</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44910</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>45471</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30191,7 +30191,7 @@
         <v>45551.63643518519</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>45055</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>45880</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>45169.94112268519</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>46017.34442129629</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>45526</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>45315.9491087963</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>45771.36527777778</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30682,7 +30682,7 @@
         <v>44958</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>44557.42135416667</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>45246.96853009259</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>45565.49291666667</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30920,7 +30920,7 @@
         <v>45239.9687962963</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>44235</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31044,7 +31044,7 @@
         <v>45562.55240740741</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         <v>45560.53184027778</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31168,7 +31168,7 @@
         <v>44888</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31225,7 +31225,7 @@
         <v>45223.96712962963</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45202.9420949074</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>45448.9278125</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>45448.94540509259</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>45057</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>45036</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>45565.49016203704</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31649,7 +31649,7 @@
         <v>45244.96695601852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31711,7 +31711,7 @@
         <v>45610.67768518518</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31773,7 +31773,7 @@
         <v>45636</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31835,7 +31835,7 @@
         <v>45448.94550925926</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31897,7 +31897,7 @@
         <v>45448.94559027778</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31959,7 +31959,7 @@
         <v>45735</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>45351.9859375</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32083,7 +32083,7 @@
         <v>45566</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32140,7 +32140,7 @@
         <v>44942</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32197,7 +32197,7 @@
         <v>45740.68304398148</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32254,7 +32254,7 @@
         <v>45272</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32311,7 +32311,7 @@
         <v>45632</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>45632</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>45519</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>45153</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32554,7 +32554,7 @@
         <v>45617</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32611,7 +32611,7 @@
         <v>45642</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>45393</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32725,7 +32725,7 @@
         <v>45399</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>45253</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>44838</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32901,7 +32901,7 @@
         <v>45625.62136574074</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>45111</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>45180</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33082,7 +33082,7 @@
         <v>45223.9649537037</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>45245.92914351852</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         <v>44956.93971064815</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33263,7 +33263,7 @@
         <v>44481</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33320,7 +33320,7 @@
         <v>45611</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33377,7 +33377,7 @@
         <v>45253</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33434,7 +33434,7 @@
         <v>45253</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33491,7 +33491,7 @@
         <v>45148.96259259259</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>45198</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>44484</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>45190.92554398148</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>45244.96703703704</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33791,7 +33791,7 @@
         <v>44494</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33848,7 +33848,7 @@
         <v>45103</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>45607.40678240741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33967,7 +33967,7 @@
         <v>45607.40694444445</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>45664.41229166667</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44848</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>45385</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>45586.32145833333</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34262,7 +34262,7 @@
         <v>45075</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34324,7 +34324,7 @@
         <v>44748.94555555555</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         <v>45488.94804398148</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34448,7 +34448,7 @@
         <v>45182.92409722223</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34505,7 +34505,7 @@
         <v>45740.81103009259</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34562,7 +34562,7 @@
         <v>44930.92725694444</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34619,7 +34619,7 @@
         <v>45734.55266203704</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34681,7 +34681,7 @@
         <v>45629.35725694444</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34743,7 +34743,7 @@
         <v>44410</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34800,7 +34800,7 @@
         <v>45721.36486111111</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34862,7 +34862,7 @@
         <v>45572.46914351852</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34924,7 +34924,7 @@
         <v>45778.34434027778</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>45478.92837962963</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>45614</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>45779.61490740741</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35162,7 +35162,7 @@
         <v>45779.49037037037</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35224,7 +35224,7 @@
         <v>45783.40668981482</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35286,7 +35286,7 @@
         <v>45782</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
         <v>45782</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35410,7 +35410,7 @@
         <v>45782</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>45783</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35534,7 +35534,7 @@
         <v>45782</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35596,7 +35596,7 @@
         <v>45562</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35658,7 +35658,7 @@
         <v>45785.65777777778</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35720,7 +35720,7 @@
         <v>45784</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35782,7 +35782,7 @@
         <v>45789.63657407407</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>45789</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44645</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>45771.57355324074</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36020,7 +36020,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36077,7 +36077,7 @@
         <v>45485.38835648148</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36134,7 +36134,7 @@
         <v>45792.46936342592</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36196,7 +36196,7 @@
         <v>45792.42746527777</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36258,7 +36258,7 @@
         <v>45551</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36315,7 +36315,7 @@
         <v>45517</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36372,7 +36372,7 @@
         <v>45614</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36429,7 +36429,7 @@
         <v>45295</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>

--- a/Översikt DOROTEA.xlsx
+++ b/Översikt DOROTEA.xlsx
@@ -575,7 +575,7 @@
         <v>45813</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>45800.51078703703</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>45412</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>45785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         <v>45614</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45428</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45629</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>44853</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45356</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>45453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45848.61557870371</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44957</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>45820.65403935185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>45063</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45981.57350694444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>45202</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45225</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>45890</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45900.46912037037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>44902</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>45937.63671296297</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>45840.67800925926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>45302</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>45616.89516203704</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>45629</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>45491.39454861111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44878.6125462963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>45624</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>44953</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>45471</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>44855</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45831</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>45622.59461805555</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>45534</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>45938.49196759259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>45583</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45103</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>46003</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>45629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>44526</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45198</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>44509</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>44810.9431712963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44271</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44351</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44351</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44834.76478009259</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44351</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44725</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44614</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>44859</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>44852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>44845</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>44351</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>44851</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>44383</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44336</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44336</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44264.94361111111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>44337</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44336</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44294</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44465</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44465.40667824074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44336</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44465.4134375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>44838</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>45630</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>45142.92372685186</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>44974.38387731482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>45170</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>45622</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>45556.34417824074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>44931.92650462963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>45330</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>45158.94190972222</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>45721</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>45257.97371527777</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>45482.92789351852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>45036.89533564815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44876</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>45097</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>45764.59451388889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>45446.94887731481</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45700.5734837963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>45125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45125</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44889</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>45742.48995370371</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>45659</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>45799</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>45714.40652777778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45677.59814814815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45799</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>45803.5733912037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>45803.63585648148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>45803.38633101852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>45140</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>45803.55297453704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>45800.67747685185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>45692.34452546296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>44931.92638888889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>45803.55256944444</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>45803.5528125</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>45800.57395833333</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45800.61635416667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>45800.38581018519</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>45805.65696759259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>45674.57372685185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>45807.47043981482</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>45807.40659722222</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>45807.47040509259</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>45807</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>45418</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>45742</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>45807</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>45811</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>45664</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>45742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>45811</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>45813</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>45889.53192129629</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>45889.53162037037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9942,7 +9942,7 @@
         <v>45812.44833333333</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>45351.98571759259</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45813.55248842593</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>45890.63614583333</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>45891.46913194445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>45547</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>45735</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>45817.59523148148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>44860</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>45461</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>45817.38577546296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>45893.65675925926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>45894.71912037037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>45036</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>45742.42782407408</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>45817.6778587963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>45351.98583333333</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>45897</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>45898.53164351852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>45818.71905092592</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>45890</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>45818.36496527777</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>45898.42778935185</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>45898</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>45903.36497685185</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>45903.40694444445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>45903.36555555555</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>45198</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>45505.95497685186</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>45903.34480324074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>45905.59423611111</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>45852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>45852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>45673.67822916667</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>45904.61569444444</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45904.61540509259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>45904.34472222222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>45908.53167824074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>45228</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45228</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45824.38880787037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45629.3558449074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>45824</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>44417</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>45912.65726851852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12687,7 +12687,7 @@
         <v>45915.61515046296</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>45897</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44582.93300925926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>45915.61606481481</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>45912.67747685185</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45912.42776620371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>45680</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>45915</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>45917.42748842593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>45916.34527777778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13297,7 +13297,7 @@
         <v>45916.40681712963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>45916.44855324074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13421,7 +13421,7 @@
         <v>45916.49549768519</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>45917.42766203704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>45917.92033564814</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>45586.32023148148</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>44376.93447916667</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>45457.96494212963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>45463.94417824074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>45845</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>45013</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>45582.38579861111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>45845</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>45923.4805787037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44742</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>45720.61486111111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>45833.61688657408</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14326,7 +14326,7 @@
         <v>45833.59679398148</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         <v>45678.66666666666</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14440,7 +14440,7 @@
         <v>45834.59436342592</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>45356</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>45471.9444212963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>45553</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>45834.55252314815</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>45614.69854166666</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         <v>44431</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>45614</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>45772.69824074074</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>45331</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>45936.40789351852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>45936.40791666666</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>45840.67768518518</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15278,7 +15278,7 @@
         <v>45840.67862268518</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>45936.3863425926</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>45938.678125</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45937.64037037037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>45840.46914351852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>45937.63645833333</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44979</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>45939.36525462963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>45769</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>45769</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>45140.96399305556</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>45842.44846064815</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>45843.36505787037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>45268.9262037037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>45945.47358796297</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>45944.56261574074</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45847.40707175926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>45847.40681712963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>45846.26190972222</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>45847.6568287037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>45846</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>45539</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>45848.42844907408</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>45848.42857638889</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>45849.4284837963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>45849.42844907408</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>45574</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>45946.61502314815</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>45463</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>45142.92407407407</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>45852.53199074074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44888</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17222,7 +17222,7 @@
         <v>45854.38577546296</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>45855.40684027778</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>45855.53179398148</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>45855</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>45855</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>45855</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>45855</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>45854.40681712963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>45855</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44998</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>45272</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>45859.44861111111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>45859.44880787037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17993,7 +17993,7 @@
         <v>45953.69837962963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>45693</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>45953.38614583333</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>45483.96839120371</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>45757.69819444444</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>45866.57357638889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>45867.3653587963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45098</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45866.49025462963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>45866.61515046296</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>45867.36557870371</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>45954.36586805555</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>45873</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>45705.3462037037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44974.38841435185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>45469.92811342593</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>45959.57366898148</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>45770.67743055556</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>45874.42888888889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>45874.38578703703</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>45110</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19317,7 +19317,7 @@
         <v>45874.64811342592</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>45874.6445949074</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>45874.38576388889</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
         <v>45875.5525462963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>45874.5946875</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>45876.4483912037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>45877</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>45877.61532407408</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>45639.34640046296</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>45672</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>45877.61496527777</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>45253</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
         <v>45876.49045138889</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>45876.4909837963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20165,7 +20165,7 @@
         <v>45876.49138888889</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>45876.49122685185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>45876.49024305555</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20351,7 +20351,7 @@
         <v>45876.51096064815</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>45642</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>45876.38582175926</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>44971</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>45678.66665509259</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>45965.59481481482</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45505.95542824074</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20770,7 +20770,7 @@
         <v>45962.78836805555</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         <v>45882.49087962963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>45720.61511574074</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45966.34535879629</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21008,7 +21008,7 @@
         <v>45966.34540509259</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         <v>45971.40711805555</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21127,7 +21127,7 @@
         <v>45971</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>45190.92549768519</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
         <v>45882.49097222222</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>45971.63633101852</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>45429.9359375</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>44925</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21479,7 +21479,7 @@
         <v>45972.46931712963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>45882</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>45882.49069444444</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>45882</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>45883.34537037037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21774,7 +21774,7 @@
         <v>45883.36519675926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21836,7 +21836,7 @@
         <v>45882.49106481481</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21893,7 +21893,7 @@
         <v>45712</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45975.34542824074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45975.4071412037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>45975.49017361111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>45975.61641203704</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>45975.34587962963</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22265,7 +22265,7 @@
         <v>45069</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22322,7 +22322,7 @@
         <v>45614</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>45978</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22436,7 +22436,7 @@
         <v>45979.34461805555</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>45977.6983912037</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45642.63332175926</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>45978.40677083333</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>45978</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22736,7 +22736,7 @@
         <v>46010</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22793,7 +22793,7 @@
         <v>45224.96391203703</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22855,7 +22855,7 @@
         <v>45713.61494212963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22917,7 +22917,7 @@
         <v>45978</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22974,7 +22974,7 @@
         <v>44900.95491898148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>45978</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45978</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45978</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>45978</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45726.51075231482</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45981.38592592593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>45981</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         <v>45980.40675925926</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>45980.57395833333</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>45980.57414351852</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>45217</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>45981.53181712963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>45981.51090277778</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>45981</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>45981.49009259259</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23931,7 +23931,7 @@
         <v>44974</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
         <v>45161.94466435185</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44956</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>45982.34423611111</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24174,7 +24174,7 @@
         <v>45740.84127314815</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24231,7 +24231,7 @@
         <v>45982.46956018519</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>45574.51318287037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>45986.42753472222</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>45988</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45988</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>45561.34652777778</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
         <v>46030.47678240741</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24645,7 +24645,7 @@
         <v>45764</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24707,7 +24707,7 @@
         <v>45988.38663194444</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>45642</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>45642.6359837963</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>45534</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24945,7 +24945,7 @@
         <v>45988.40792824074</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25002,7 +25002,7 @@
         <v>45993.42767361111</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>45993.40670138889</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45491</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44568.92145833333</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>45729.36533564814</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>45862</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>46036.40693287037</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         <v>46036.67759259259</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>45770.61537037037</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>45995</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>44756.38809027777</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25664,7 +25664,7 @@
         <v>45996</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25721,7 +25721,7 @@
         <v>46038.46935185185</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>45516</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>46029</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>44980</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>45981</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>45475</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>46042.46931712963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>45448.94579861111</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>46043.6028125</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>45071</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26316,7 +26316,7 @@
         <v>46042.67120370371</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>45764.61490740741</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26440,7 +26440,7 @@
         <v>45678.66674768519</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>46042.34465277778</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>45740.67822916667</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>44994</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>45399</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>45611</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>45672.43625</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>45755</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>44889</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>45978</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>46003.34439814815</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>46003</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>46003</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>44524</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45520</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>45733.67770833334</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>45799</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>46007.44863425926</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>46007.40666666667</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>44960</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27615,7 +27615,7 @@
         <v>46047.59396990741</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27672,7 +27672,7 @@
         <v>45681.36523148148</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>45747</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>46036</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>46007.4487037037</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>45771</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>45755</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>45600</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>46007.46914351852</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>46007.44877314815</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45552</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>45149</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>44979</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>45644</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>46009.46942129629</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>45539</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         <v>46045</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28614,7 +28614,7 @@
         <v>46051.59429398148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>45796</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28738,7 +28738,7 @@
         <v>46009.36521990741</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28800,7 +28800,7 @@
         <v>46051.59449074074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>44761</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>46054.53177083333</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>45036</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>46013.66325231481</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>46051</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29157,7 +29157,7 @@
         <v>46010</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29214,7 +29214,7 @@
         <v>46010.59421296296</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29271,7 +29271,7 @@
         <v>46055.63590277778</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>45723.57409722222</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>45392.95734953704</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44719.94283564815</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>45169</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29581,7 +29581,7 @@
         <v>45169.9409837963</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45169.94105324074</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29705,7 +29705,7 @@
         <v>45677</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>45202</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>45169.94084490741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29886,7 +29886,7 @@
         <v>44956</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29943,7 +29943,7 @@
         <v>44824</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>45624</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>44910</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>45471</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30191,7 +30191,7 @@
         <v>45551.63643518519</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>45055</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>45880</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30372,7 +30372,7 @@
         <v>45169.94112268519</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>46017.34442129629</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>45526</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>45315.9491087963</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>45771.36527777778</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30682,7 +30682,7 @@
         <v>44958</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>44557.42135416667</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>45246.96853009259</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>45565.49291666667</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30920,7 +30920,7 @@
         <v>45239.9687962963</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>44235</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31044,7 +31044,7 @@
         <v>45562.55240740741</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         <v>45560.53184027778</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31168,7 +31168,7 @@
         <v>44888</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31225,7 +31225,7 @@
         <v>45223.96712962963</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45202.9420949074</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>45448.9278125</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>45448.94540509259</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>45057</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>45036</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>45565.49016203704</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31649,7 +31649,7 @@
         <v>45244.96695601852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31711,7 +31711,7 @@
         <v>45610.67768518518</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31773,7 +31773,7 @@
         <v>45636</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31835,7 +31835,7 @@
         <v>45448.94550925926</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31897,7 +31897,7 @@
         <v>45448.94559027778</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31959,7 +31959,7 @@
         <v>45735</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>45351.9859375</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32083,7 +32083,7 @@
         <v>45566</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32140,7 +32140,7 @@
         <v>44942</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32197,7 +32197,7 @@
         <v>45740.68304398148</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32254,7 +32254,7 @@
         <v>45272</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32311,7 +32311,7 @@
         <v>45632</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>45632</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>45519</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>45153</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32554,7 +32554,7 @@
         <v>45617</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32611,7 +32611,7 @@
         <v>45642</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32668,7 +32668,7 @@
         <v>45393</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32725,7 +32725,7 @@
         <v>45399</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32782,7 +32782,7 @@
         <v>45253</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32844,7 +32844,7 @@
         <v>44838</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32901,7 +32901,7 @@
         <v>45625.62136574074</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32958,7 +32958,7 @@
         <v>45111</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>45180</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33082,7 +33082,7 @@
         <v>45223.9649537037</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>45245.92914351852</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         <v>44956.93971064815</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33263,7 +33263,7 @@
         <v>44481</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33320,7 +33320,7 @@
         <v>45611</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33377,7 +33377,7 @@
         <v>45253</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33434,7 +33434,7 @@
         <v>45253</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33491,7 +33491,7 @@
         <v>45148.96259259259</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>45198</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>44484</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>45190.92554398148</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>45244.96703703704</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33791,7 +33791,7 @@
         <v>44494</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33848,7 +33848,7 @@
         <v>45103</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>45607.40678240741</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33967,7 +33967,7 @@
         <v>45607.40694444445</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>45664.41229166667</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>44848</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>45385</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>45586.32145833333</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34262,7 +34262,7 @@
         <v>45075</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34324,7 +34324,7 @@
         <v>44748.94555555555</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         <v>45488.94804398148</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34448,7 +34448,7 @@
         <v>45182.92409722223</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34505,7 +34505,7 @@
         <v>45740.81103009259</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34562,7 +34562,7 @@
         <v>44930.92725694444</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34619,7 +34619,7 @@
         <v>45734.55266203704</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34681,7 +34681,7 @@
         <v>45629.35725694444</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34743,7 +34743,7 @@
         <v>44410</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34800,7 +34800,7 @@
         <v>45721.36486111111</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34862,7 +34862,7 @@
         <v>45572.46914351852</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34924,7 +34924,7 @@
         <v>45778.34434027778</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>45478.92837962963</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>45614</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>45779.61490740741</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35162,7 +35162,7 @@
         <v>45779.49037037037</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35224,7 +35224,7 @@
         <v>45783.40668981482</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35286,7 +35286,7 @@
         <v>45782</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
         <v>45782</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35410,7 +35410,7 @@
         <v>45782</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35472,7 +35472,7 @@
         <v>45783</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35534,7 +35534,7 @@
         <v>45782</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35596,7 +35596,7 @@
         <v>45562</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35658,7 +35658,7 @@
         <v>45785.65777777778</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35720,7 +35720,7 @@
         <v>45784</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35782,7 +35782,7 @@
         <v>45789.63657407407</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>45789</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44645</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>45771.57355324074</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36020,7 +36020,7 @@
         <v>45140</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36077,7 +36077,7 @@
         <v>45485.38835648148</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36134,7 +36134,7 @@
         <v>45792.46936342592</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36196,7 +36196,7 @@
         <v>45792.42746527777</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36258,7 +36258,7 @@
         <v>45551</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36315,7 +36315,7 @@
         <v>45517</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36372,7 +36372,7 @@
         <v>45614</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36429,7 +36429,7 @@
         <v>45295</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>

--- a/Översikt DOROTEA.xlsx
+++ b/Översikt DOROTEA.xlsx
@@ -575,7 +575,7 @@
         <v>45813</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>45800.51078703703</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>45412</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>45785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         <v>45614</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45428</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45629</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>44853</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45356</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>45453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45848.61557870371</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44957</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>45820.65403935185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>45063</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45981.57350694444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>45202</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45225</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44902</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>45890</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45900.46912037037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>45840.67800925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>45937.63671296297</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>45302</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>45616.89516203704</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>45629</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>45491.39454861111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44878.6125462963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>45624</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>44953</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>45471</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>45831</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>44855</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>45622.59461805555</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>45534</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>45938.49196759259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>45583</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45103</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>46003</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>45629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>44526</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45198</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>44810.9431712963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44271</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44351</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44351</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44834.76478009259</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44351</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44725</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44614</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>44859</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>44351</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>44852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>44845</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>44851</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>44383</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44336</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44336</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44337</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>44264.94361111111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44336</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44294</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44465</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44465.40667824074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44336</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44465.4134375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>44838</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>45142.92372685186</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>44974.38387731482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>45630</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>45170</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>45622</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>44931.92650462963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>45556.34417824074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>45330</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>45158.94190972222</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>45721</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>45257.97371527777</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>45482.92789351852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>45036.89533564815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44876</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>45097</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>45764.59451388889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>45446.94887731481</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45125</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45700.5734837963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45742.48995370371</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>45125</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>45659</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>45140</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>45714.40652777778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45692.34452546296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>45677.59814814815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44931.92638888889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45674.57372685185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45547</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45735</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45351.98571759259</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>45817.6778587963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>44860</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>45461</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>45818.71905092592</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>45036</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>45742.42782407408</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>45818.36496527777</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>45351.98583333333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45824.38880787037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45198</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45824</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>45813</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>45889.53192129629</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>45505.95497685186</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>45889.53162037037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>45890.63614583333</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>45673.67822916667</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>45891.46913194445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>45228</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         <v>45228</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>45893.65675925926</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45894.71912037037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44417</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>45897</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45898.53164351852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>44582.93300925926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>45833.61688657408</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>45833.59679398148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>45680</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>45890</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>45834.59436342592</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>45898.42778935185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>45898</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>45903.36497685185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>45903.40694444445</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>45834.55252314815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>45903.36555555555</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>45903.34480324074</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>45586.32023148148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44376.93447916667</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>45457.96494212963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>45463.94417824074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>45013</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>45582.38579861111</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45905.59423611111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>45852</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>45852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>45904.61569444444</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>45904.61540509259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>45904.34472222222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>45908.53167824074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44742</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>45840.67768518518</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>45629.3558449074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>45720.61486111111</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>45840.67862268518</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>45840.46914351852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>45842.44846064815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45678.66666666666</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45912.65726851852</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45915.61515046296</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45843.36505787037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45897</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>45356</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>45915.61606481481</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>45912.67747685185</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>45847.40707175926</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>45847.40681712963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>45846.26190972222</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>45847.6568287037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>45912.42776620371</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45846</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45471.9444212963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>45915</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>45848.42844907408</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>45848.42857638889</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>45849.4284837963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>45849.42844907408</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45553</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>45917.42748842593</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>45916.34527777778</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>45916.40681712963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>45916.44855324074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>45916.49549768519</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>45614.69854166666</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>45917.42766203704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13706,7 +13706,7 @@
         <v>45852.53199074074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44431</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>45614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>45854.38577546296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>45772.69824074074</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>45855.40684027778</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>45855.53179398148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>45855</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>45855</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>45855</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>45855</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>45854.40681712963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>45855</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>45917.92033564814</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>45845</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>45272</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45331</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45859.44861111111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45859.44880787037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>45845</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>45923.4805787037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>45866.57357638889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>45867.3653587963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>45867</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>45866.49025462963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>45866.61515046296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>45867.36557870371</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44979</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>45769</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>45769</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>45140.96399305556</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>45873</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>45874.42888888889</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45874.38578703703</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>45874.64811342592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>45874.6445949074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>45874.38576388889</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>45268.9262037037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>45875.5525462963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>45874.5946875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45876.4483912037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>45877</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>45877.61532407408</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>45877.61496527777</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45876.49045138889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>45876.4909837963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>45876.49138888889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>45876.49122685185</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>45876.49024305555</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         <v>45876.51096064815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>45876.38582175926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>45936.40789351852</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>45142.92407407407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>44888</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>45936.40791666666</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>45882.49087962963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>45936.3863425926</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17177,7 +17177,7 @@
         <v>44998</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>45938.678125</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>45882.49097222222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>45937.64037037037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>45882</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>45882.49069444444</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>45882</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>45883.34537037037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>45883.36519675926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>45882.49106481481</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>45937.63645833333</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>45693</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>45712</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>45483.96839120371</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>45757.69819444444</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>45098</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>45939.36525462963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45705.3462037037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44974.38841435185</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45945.47358796297</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>45944.56261574074</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>45469.92811342593</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>45770.67743055556</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>45110</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>45539</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45574</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>45946.61502314815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>45463</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>45639.34640046296</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>45672</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>45253</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>45642</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>44971</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>45953.69837962963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>45953.38614583333</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>45678.66665509259</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>45505.95542824074</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>45720.61511574074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>45954.36586805555</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>45959.57366898148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         <v>45190.92549768519</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>45429.9359375</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44925</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>45069</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>45614</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>45642.63332175926</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>45965.59481481482</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>45224.96391203703</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20048,7 +20048,7 @@
         <v>45713.61494212963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>44900.95491898148</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         <v>45962.78836805555</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20229,7 +20229,7 @@
         <v>45726.51075231482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45966.34535879629</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20353,7 +20353,7 @@
         <v>45966.34540509259</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>45217</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44974</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45161.94466435185</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>45971.40711805555</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44956</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         <v>45971</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20767,7 +20767,7 @@
         <v>45971.63633101852</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>45972.46931712963</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20891,7 +20891,7 @@
         <v>45740.84127314815</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20948,7 +20948,7 @@
         <v>45975.34542824074</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>45975.4071412037</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45975.49017361111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>45975.61641203704</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>45574.51318287037</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>45975.34587962963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>45978</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>45979.34461805555</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>45977.6983912037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         <v>45978.40677083333</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
         <v>45978</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21620,7 +21620,7 @@
         <v>46010</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21677,7 +21677,7 @@
         <v>45978</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21734,7 +21734,7 @@
         <v>45978</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>45978</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>45978</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21905,7 +21905,7 @@
         <v>45561.34652777778</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21967,7 +21967,7 @@
         <v>45978</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         <v>45981.38592592593</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>45981</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>45764</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>45980.40675925926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>45980.57395833333</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45980.57414351852</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>45981.53181712963</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>45642</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22510,7 +22510,7 @@
         <v>45642.6359837963</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>45981.51090277778</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>45981</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>45981.49009259259</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>45534</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45982.34423611111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>45982.46956018519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45986.42753472222</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45491</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>45988</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>45988</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>45988.38663194444</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>44568.92145833333</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>45729.36533564814</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>45988.40792824074</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>45770.61537037037</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>45993.42767361111</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>45993.40670138889</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44756.38809027777</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>45862</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>46036.40693287037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>46036.67759259259</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23829,7 +23829,7 @@
         <v>45995</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23886,7 +23886,7 @@
         <v>45516</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>44980</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>45996</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>45475</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>45448.94579861111</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>46038.46935185185</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24243,7 +24243,7 @@
         <v>45071</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>46029</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24357,7 +24357,7 @@
         <v>45764.61490740741</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>45981</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>45678.66674768519</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>45740.67822916667</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24595,7 +24595,7 @@
         <v>44994</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>45399</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24709,7 +24709,7 @@
         <v>45611</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24766,7 +24766,7 @@
         <v>45672.43625</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>46042.46931712963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>45755</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44889</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>46043.6028125</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25066,7 +25066,7 @@
         <v>46042.67120370371</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25128,7 +25128,7 @@
         <v>46042.34465277778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>44524</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>45733.67770833334</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>45978</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>46003.34439814815</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>44960</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>46003</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>46003</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45681.36523148148</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45771</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>45799</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>45600</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>46007.44863425926</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>46007.40666666667</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>45552</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>46047.59396990741</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45149</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45747</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>46036</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>44979</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>46007.4487037037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45755</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>46007.46914351852</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>46007.44877314815</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45796</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>44761</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45644</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>46009.46942129629</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45539</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>46045</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>45036</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>46051.59429398148</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27017,7 +27017,7 @@
         <v>46009.36521990741</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>46051.59449074074</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>46054.53177083333</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27203,7 +27203,7 @@
         <v>46013.66325231481</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27260,7 +27260,7 @@
         <v>46051</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27322,7 +27322,7 @@
         <v>45723.57409722222</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27384,7 +27384,7 @@
         <v>46010</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>45392.95734953704</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>44719.94283564815</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45169</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45169.9409837963</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45169.94105324074</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27751,7 +27751,7 @@
         <v>46010.59421296296</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>46055.63590277778</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27870,7 +27870,7 @@
         <v>45677</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27927,7 +27927,7 @@
         <v>45202</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27989,7 +27989,7 @@
         <v>45169.94084490741</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44956</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44824</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28170,7 +28170,7 @@
         <v>45624</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28232,7 +28232,7 @@
         <v>44910</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28294,7 +28294,7 @@
         <v>45471</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>45551.63643518519</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45055</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>45169.94112268519</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45880</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45526</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45315.9491087963</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28723,7 +28723,7 @@
         <v>46017.34442129629</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>46059</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>46059</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>45771.36527777778</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28961,7 +28961,7 @@
         <v>46063.44837962963</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44958</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44557.42135416667</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>45246.96853009259</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>45565.49291666667</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>45239.9687962963</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>45520</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29380,7 +29380,7 @@
         <v>45562.55240740741</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29442,7 +29442,7 @@
         <v>45560.53184027778</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>44888</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45223.96712962963</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>45202.9420949074</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>45448.9278125</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>45448.94540509259</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>45057</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29866,7 +29866,7 @@
         <v>45036</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29923,7 +29923,7 @@
         <v>45565.49016203704</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29985,7 +29985,7 @@
         <v>46030.47678240741</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>46072.61136574074</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30099,7 +30099,7 @@
         <v>45244.96695601852</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>45610.67768518518</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45636</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         <v>45448.94550925926</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45448.94559027778</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45735</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45351.9859375</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>45566</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30590,7 +30590,7 @@
         <v>44942</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30647,7 +30647,7 @@
         <v>45740.68304398148</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30704,7 +30704,7 @@
         <v>45272</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30761,7 +30761,7 @@
         <v>45632</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>45632</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30885,7 +30885,7 @@
         <v>45519</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30942,7 +30942,7 @@
         <v>45153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31004,7 +31004,7 @@
         <v>45617</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31061,7 +31061,7 @@
         <v>45642</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31118,7 +31118,7 @@
         <v>45393</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>45399</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31232,7 +31232,7 @@
         <v>45253</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>44838</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>45625.62136574074</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>45111</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>45180</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45223.9649537037</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>45245.92914351852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>44956.93971064815</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>44481</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>45611</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>45253</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>45253</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>45148.96259259259</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45198</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44484</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>45190.92554398148</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>45244.96703703704</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>44494</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32298,7 +32298,7 @@
         <v>45103</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32355,7 +32355,7 @@
         <v>45607.40678240741</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32417,7 +32417,7 @@
         <v>45607.40694444445</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>45664.41229166667</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>44848</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>45385</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>45586.32145833333</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32712,7 +32712,7 @@
         <v>45075</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32774,7 +32774,7 @@
         <v>44748.94555555555</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32836,7 +32836,7 @@
         <v>45488.94804398148</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>45182.92409722223</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>45740.81103009259</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>44930.92725694444</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>45734.55266203704</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33131,7 +33131,7 @@
         <v>45629.35725694444</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>44410</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33250,7 +33250,7 @@
         <v>45721.36486111111</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33312,7 +33312,7 @@
         <v>45572.46914351852</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33374,7 +33374,7 @@
         <v>45778.34434027778</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33436,7 +33436,7 @@
         <v>45478.92837962963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33493,7 +33493,7 @@
         <v>45614</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33550,7 +33550,7 @@
         <v>45779.61490740741</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45779.49037037037</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45783.40668981482</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33736,7 +33736,7 @@
         <v>45782</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33798,7 +33798,7 @@
         <v>45782</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33860,7 +33860,7 @@
         <v>45782</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33922,7 +33922,7 @@
         <v>45783</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45782</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34046,7 +34046,7 @@
         <v>45562</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>45785.65777777778</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34170,7 +34170,7 @@
         <v>45784</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>45789.63657407407</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>45789</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44645</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>45771.57355324074</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34470,7 +34470,7 @@
         <v>45140</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34527,7 +34527,7 @@
         <v>45485.38835648148</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34584,7 +34584,7 @@
         <v>45792.46936342592</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>45792.42746527777</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34708,7 +34708,7 @@
         <v>45551</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34765,7 +34765,7 @@
         <v>45517</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34822,7 +34822,7 @@
         <v>45614</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34879,7 +34879,7 @@
         <v>45295</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34936,7 +34936,7 @@
         <v>45799</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>45799</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35060,7 +35060,7 @@
         <v>45803.5733912037</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35122,7 +35122,7 @@
         <v>45803.63585648148</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35184,7 +35184,7 @@
         <v>45803.38633101852</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35246,7 +35246,7 @@
         <v>45803.55297453704</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35308,7 +35308,7 @@
         <v>45800.67747685185</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35370,7 +35370,7 @@
         <v>45803.55256944444</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35432,7 +35432,7 @@
         <v>45803.5528125</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35494,7 +35494,7 @@
         <v>45800.57395833333</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35556,7 +35556,7 @@
         <v>45800.61635416667</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>45800.38581018519</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35680,7 +35680,7 @@
         <v>45805.65696759259</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35742,7 +35742,7 @@
         <v>45807.47043981482</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35804,7 +35804,7 @@
         <v>45807.40659722222</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35866,7 +35866,7 @@
         <v>45807.47040509259</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>45807</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35990,7 +35990,7 @@
         <v>45418</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36052,7 +36052,7 @@
         <v>45742</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36109,7 +36109,7 @@
         <v>45807</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36171,7 +36171,7 @@
         <v>45811</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36233,7 +36233,7 @@
         <v>45664</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36290,7 +36290,7 @@
         <v>45742</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36347,7 +36347,7 @@
         <v>45811</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36409,7 +36409,7 @@
         <v>45812.44833333333</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>45813.55248842593</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36533,7 +36533,7 @@
         <v>45817.59523148148</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         <v>45817.38577546296</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>

--- a/Översikt DOROTEA.xlsx
+++ b/Översikt DOROTEA.xlsx
@@ -575,7 +575,7 @@
         <v>45813</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>45800.51078703703</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>45412</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>45785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         <v>45614</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45428</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45629</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>44853</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45356</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>45453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45848.61557870371</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44957</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>45820.65403935185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>45063</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45981.57350694444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>45202</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>45225</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44902</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>45890</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45900.46912037037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>45840.67800925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>45937.63671296297</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>45302</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>45616.89516203704</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>45629</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>45491.39454861111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44878.6125462963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>45624</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>44953</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>45471</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>45831</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>44855</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>45622.59461805555</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>45534</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>45938.49196759259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         <v>45583</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45103</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>46003</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>45629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>44526</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45198</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>44810.9431712963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44509</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44271</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44351</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44351</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44834.76478009259</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44351</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44725</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44614</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>44859</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>44351</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>44852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>44845</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>44851</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>44383</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44336</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44336</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44337</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>44264.94361111111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44336</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44294</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44465</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44465.40667824074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44336</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44465.4134375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>44838</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>45142.92372685186</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>44974.38387731482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>45630</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>45170</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>45622</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>44931.92650462963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>45556.34417824074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>45330</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         <v>45158.94190972222</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>45721</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>45257.97371527777</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>45482.92789351852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>45036.89533564815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44876</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>45097</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>45764.59451388889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>45446.94887731481</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45125</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45700.5734837963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45742.48995370371</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>45125</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>45659</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>45140</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>45714.40652777778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45692.34452546296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>45677.59814814815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44931.92638888889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45674.57372685185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>45547</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45735</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45351.98571759259</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>45817.6778587963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>44860</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>45461</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>45818.71905092592</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>45036</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>45742.42782407408</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>45818.36496527777</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>45351.98583333333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>45824.38880787037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>45198</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>45824</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>45813</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>45889.53192129629</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>45505.95497685186</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>45889.53162037037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>45890.63614583333</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>45673.67822916667</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         <v>45891.46913194445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>45228</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         <v>45228</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         <v>45893.65675925926</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45894.71912037037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44417</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>45897</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45898.53164351852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>44582.93300925926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>45833.61688657408</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>45833.59679398148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>45680</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         <v>45890</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>45834.59436342592</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>45898.42778935185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>45898</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>45903.36497685185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>45903.40694444445</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>45834.55252314815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>45903.36555555555</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>45903.34480324074</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>45586.32023148148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44376.93447916667</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>45457.96494212963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>45463.94417824074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>45013</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>45582.38579861111</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45905.59423611111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>45852</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>45852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>45904.61569444444</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>45904.61540509259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>45904.34472222222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>45908.53167824074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44742</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>45840.67768518518</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>45629.3558449074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>45720.61486111111</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>45840.67862268518</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>45840.46914351852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>45842.44846064815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45678.66666666666</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45912.65726851852</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45915.61515046296</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45843.36505787037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45897</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>45356</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>45915.61606481481</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>45912.67747685185</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>45847.40707175926</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>45847.40681712963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>45846.26190972222</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>45847.6568287037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>45912.42776620371</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45846</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45471.9444212963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>45915</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>45848.42844907408</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>45848.42857638889</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>45849.4284837963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>45849.42844907408</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45553</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>45917.42748842593</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>45916.34527777778</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>45916.40681712963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>45916.44855324074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>45916.49549768519</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>45614.69854166666</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>45917.42766203704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13706,7 +13706,7 @@
         <v>45852.53199074074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44431</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>45614</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>45854.38577546296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>45772.69824074074</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>45855.40684027778</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>45855.53179398148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>45855</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>45855</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>45855</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>45855</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>45854.40681712963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>45855</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>45917.92033564814</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         <v>45845</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14601,7 +14601,7 @@
         <v>45272</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
         <v>45331</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>45859.44861111111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45859.44880787037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>45845</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>44889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>45923.4805787037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>45866.57357638889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>45867.3653587963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>45867</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>45866.49025462963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>45866.61515046296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>45867.36557870371</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>44979</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>45769</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>45769</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>45140.96399305556</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>45873</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>45874.42888888889</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45874.38578703703</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>45874.64811342592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>45874.6445949074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>45874.38576388889</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>45268.9262037037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>45875.5525462963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>45874.5946875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45876.4483912037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>45877</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>45877.61532407408</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>45877.61496527777</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45876.49045138889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>45876.4909837963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>45876.49138888889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>45876.49122685185</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>45876.49024305555</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         <v>45876.51096064815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>45876.38582175926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>45936.40789351852</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>45142.92407407407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         <v>44888</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         <v>45936.40791666666</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         <v>45882.49087962963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         <v>45936.3863425926</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17177,7 +17177,7 @@
         <v>44998</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>45938.678125</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>45882.49097222222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>45937.64037037037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>45882</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>45882.49069444444</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>45882</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>45883.34537037037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>45883.36519675926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>45882.49106481481</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>45937.63645833333</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>45693</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>45712</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>45483.96839120371</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>45757.69819444444</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>45098</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>45939.36525462963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>45705.3462037037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>44974.38841435185</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>45945.47358796297</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>45944.56261574074</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>45469.92811342593</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>45770.67743055556</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>45110</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>45539</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45574</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>45946.61502314815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>45463</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>45639.34640046296</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>45672</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>45253</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>45642</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>44971</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>45953.69837962963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19210,7 +19210,7 @@
         <v>45953.38614583333</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>45678.66665509259</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>45505.95542824074</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>45720.61511574074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>45954.36586805555</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>45959.57366898148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         <v>45190.92549768519</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>45429.9359375</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44925</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>45069</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>45614</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>45642.63332175926</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>45965.59481481482</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>45224.96391203703</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20048,7 +20048,7 @@
         <v>45713.61494212963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>44900.95491898148</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         <v>45962.78836805555</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20229,7 +20229,7 @@
         <v>45726.51075231482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45966.34535879629</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20353,7 +20353,7 @@
         <v>45966.34540509259</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>45217</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44974</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45161.94466435185</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>45971.40711805555</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44956</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         <v>45971</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20767,7 +20767,7 @@
         <v>45971.63633101852</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>45972.46931712963</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20891,7 +20891,7 @@
         <v>45740.84127314815</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20948,7 +20948,7 @@
         <v>45975.34542824074</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>45975.4071412037</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>45975.49017361111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>45975.61641203704</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>45574.51318287037</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>45975.34587962963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>45978</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21377,7 +21377,7 @@
         <v>45979.34461805555</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>45977.6983912037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         <v>45978.40677083333</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
         <v>45978</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21620,7 +21620,7 @@
         <v>46010</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21677,7 +21677,7 @@
         <v>45978</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21734,7 +21734,7 @@
         <v>45978</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>45978</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>45978</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21905,7 +21905,7 @@
         <v>45561.34652777778</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21967,7 +21967,7 @@
         <v>45978</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         <v>45981.38592592593</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>45981</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>45764</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>45980.40675925926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>45980.57395833333</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45980.57414351852</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>45981.53181712963</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>45642</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22510,7 +22510,7 @@
         <v>45642.6359837963</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>45981.51090277778</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>45981</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>45981.49009259259</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>45534</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45982.34423611111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>45982.46956018519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45986.42753472222</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45491</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>45988</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>45988</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>45988.38663194444</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>44568.92145833333</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>45729.36533564814</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>45988.40792824074</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>45770.61537037037</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>45993.42767361111</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>45993.40670138889</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44756.38809027777</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>45862</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>46036.40693287037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23767,7 +23767,7 @@
         <v>46036.67759259259</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23829,7 +23829,7 @@
         <v>45995</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23886,7 +23886,7 @@
         <v>45516</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23943,7 +23943,7 @@
         <v>44980</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>45996</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24057,7 +24057,7 @@
         <v>45475</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>45448.94579861111</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>46038.46935185185</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24243,7 +24243,7 @@
         <v>45071</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>46029</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24357,7 +24357,7 @@
         <v>45764.61490740741</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>45981</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>45678.66674768519</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>45740.67822916667</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24595,7 +24595,7 @@
         <v>44994</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>45399</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24709,7 +24709,7 @@
         <v>45611</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24766,7 +24766,7 @@
         <v>45672.43625</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>46042.46931712963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>45755</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44889</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>46043.6028125</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25066,7 +25066,7 @@
         <v>46042.67120370371</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25128,7 +25128,7 @@
         <v>46042.34465277778</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>44524</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>45733.67770833334</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>45978</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>46003.34439814815</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>44960</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>46003</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>46003</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45681.36523148148</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45771</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>45799</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25790,7 +25790,7 @@
         <v>45600</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>46007.44863425926</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>46007.40666666667</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>45552</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>46047.59396990741</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45149</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45747</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>46036</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>44979</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>46007.4487037037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45755</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>46007.46914351852</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>46007.44877314815</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45796</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>44761</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45644</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>46009.46942129629</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45539</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>46045</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>45036</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>46051.59429398148</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27017,7 +27017,7 @@
         <v>46009.36521990741</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>46051.59449074074</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>46054.53177083333</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27203,7 +27203,7 @@
         <v>46013.66325231481</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27260,7 +27260,7 @@
         <v>46051</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27322,7 +27322,7 @@
         <v>45723.57409722222</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27384,7 +27384,7 @@
         <v>46010</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>45392.95734953704</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>44719.94283564815</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45169</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45169.9409837963</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45169.94105324074</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27751,7 +27751,7 @@
         <v>46010.59421296296</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>46055.63590277778</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27870,7 +27870,7 @@
         <v>45677</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27927,7 +27927,7 @@
         <v>45202</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27989,7 +27989,7 @@
         <v>45169.94084490741</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44956</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44824</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28170,7 +28170,7 @@
         <v>45624</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28232,7 +28232,7 @@
         <v>44910</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28294,7 +28294,7 @@
         <v>45471</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>45551.63643518519</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45055</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>45169.94112268519</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>45880</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45526</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45315.9491087963</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28723,7 +28723,7 @@
         <v>46017.34442129629</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>46059</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>46059</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>45771.36527777778</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28961,7 +28961,7 @@
         <v>46063.44837962963</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>44958</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>44557.42135416667</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>45246.96853009259</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>45565.49291666667</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>45239.9687962963</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>45520</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29380,7 +29380,7 @@
         <v>45562.55240740741</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29442,7 +29442,7 @@
         <v>45560.53184027778</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>44888</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45223.96712962963</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>45202.9420949074</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>45448.9278125</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>45448.94540509259</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>45057</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29866,7 +29866,7 @@
         <v>45036</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29923,7 +29923,7 @@
         <v>45565.49016203704</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29985,7 +29985,7 @@
         <v>46030.47678240741</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>46072.61136574074</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30099,7 +30099,7 @@
         <v>45244.96695601852</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>45610.67768518518</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45636</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         <v>45448.94550925926</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45448.94559027778</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45735</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45351.9859375</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>45566</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30590,7 +30590,7 @@
         <v>44942</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30647,7 +30647,7 @@
         <v>45740.68304398148</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30704,7 +30704,7 @@
         <v>45272</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30761,7 +30761,7 @@
         <v>45632</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>45632</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30885,7 +30885,7 @@
         <v>45519</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30942,7 +30942,7 @@
         <v>45153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31004,7 +31004,7 @@
         <v>45617</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31061,7 +31061,7 @@
         <v>45642</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31118,7 +31118,7 @@
         <v>45393</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>45399</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31232,7 +31232,7 @@
         <v>45253</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>44838</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>45625.62136574074</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>45111</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>45180</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45223.9649537037</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>45245.92914351852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>44956.93971064815</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>44481</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>45611</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>45253</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>45253</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>45148.96259259259</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45198</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44484</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>45190.92554398148</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>45244.96703703704</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>44494</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32298,7 +32298,7 @@
         <v>45103</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32355,7 +32355,7 @@
         <v>45607.40678240741</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32417,7 +32417,7 @@
         <v>45607.40694444445</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>45664.41229166667</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>44848</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>45385</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>45586.32145833333</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32712,7 +32712,7 @@
         <v>45075</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32774,7 +32774,7 @@
         <v>44748.94555555555</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32836,7 +32836,7 @@
         <v>45488.94804398148</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>45182.92409722223</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>45740.81103009259</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>44930.92725694444</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>45734.55266203704</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33131,7 +33131,7 @@
         <v>45629.35725694444</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>44410</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33250,7 +33250,7 @@
         <v>45721.36486111111</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33312,7 +33312,7 @@
         <v>45572.46914351852</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33374,7 +33374,7 @@
         <v>45778.34434027778</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33436,7 +33436,7 @@
         <v>45478.92837962963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33493,7 +33493,7 @@
         <v>45614</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33550,7 +33550,7 @@
         <v>45779.61490740741</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45779.49037037037</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45783.40668981482</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33736,7 +33736,7 @@
         <v>45782</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33798,7 +33798,7 @@
         <v>45782</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33860,7 +33860,7 @@
         <v>45782</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33922,7 +33922,7 @@
         <v>45783</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45782</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34046,7 +34046,7 @@
         <v>45562</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>45785.65777777778</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34170,7 +34170,7 @@
         <v>45784</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>45789.63657407407</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>45789</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44645</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>45771.57355324074</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34470,7 +34470,7 @@
         <v>45140</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34527,7 +34527,7 @@
         <v>45485.38835648148</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34584,7 +34584,7 @@
         <v>45792.46936342592</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>45792.42746527777</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34708,7 +34708,7 @@
         <v>45551</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34765,7 +34765,7 @@
         <v>45517</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34822,7 +34822,7 @@
         <v>45614</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34879,7 +34879,7 @@
         <v>45295</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34936,7 +34936,7 @@
         <v>45799</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>45799</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35060,7 +35060,7 @@
         <v>45803.5733912037</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35122,7 +35122,7 @@
         <v>45803.63585648148</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35184,7 +35184,7 @@
         <v>45803.38633101852</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35246,7 +35246,7 @@
         <v>45803.55297453704</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35308,7 +35308,7 @@
         <v>45800.67747685185</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35370,7 +35370,7 @@
         <v>45803.55256944444</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35432,7 +35432,7 @@
         <v>45803.5528125</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35494,7 +35494,7 @@
         <v>45800.57395833333</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35556,7 +35556,7 @@
         <v>45800.61635416667</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35618,7 +35618,7 @@
         <v>45800.38581018519</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35680,7 +35680,7 @@
         <v>45805.65696759259</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35742,7 +35742,7 @@
         <v>45807.47043981482</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35804,7 +35804,7 @@
         <v>45807.40659722222</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35866,7 +35866,7 @@
         <v>45807.47040509259</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>45807</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35990,7 +35990,7 @@
         <v>45418</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36052,7 +36052,7 @@
         <v>45742</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36109,7 +36109,7 @@
         <v>45807</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36171,7 +36171,7 @@
         <v>45811</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36233,7 +36233,7 @@
         <v>45664</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36290,7 +36290,7 @@
         <v>45742</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36347,7 +36347,7 @@
         <v>45811</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36409,7 +36409,7 @@
         <v>45812.44833333333</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>45813.55248842593</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36533,7 +36533,7 @@
         <v>45817.59523148148</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         <v>45817.38577546296</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>

--- a/Översikt DOROTEA.xlsx
+++ b/Översikt DOROTEA.xlsx
@@ -575,7 +575,7 @@
         <v>45813</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>45800.51078703703</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>45412</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>45785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         <v>45614</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45629</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45428</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>44853</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45356</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>45848.61557870371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45453</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44957</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>45820.65403935185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>45225</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>45981.57350694444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>45202</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>45063</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>45890</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45900.46912037037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45840.67800925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>45937.63671296297</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44902</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>45616.89516203704</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>45302</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>45629</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44855</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45491.39454861111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>45583</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45831</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>45103</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>45938.49196759259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>45534</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>45629</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>45624</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45622.59461805555</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>44878.6125462963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45198</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>46003</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44953</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>44526</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45471</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>44509</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>44810.9431712963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44271</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44351</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44351</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44834.76478009259</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44351</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44725</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44614</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>44859</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>44351</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>44852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>44845</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>44851</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>44383</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44336</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44336</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44337</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>44264.94361111111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44336</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44294</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44465</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44465.40667824074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44336</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44465.4134375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>44838</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>45471</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>45734.55266203704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45330</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>45228</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>45228</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44761</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>45393</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>45198</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>45399</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>45385</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>45740.68304398148</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>45224.96391203703</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44910</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>45526</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45457.96494212963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>45245.92914351852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44824</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>45551.63643518519</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>45463.94417824074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>44956</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>45448.94579861111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>45244.96695601852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>44860</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>44582.93300925926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>45140.96399305556</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>45140</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>45253</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>45505.95497685186</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44974</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>45505.95542824074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>45488.94804398148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>45169</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45169.9409837963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45169.94105324074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>45483.96839120371</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44484</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>45803.63585648148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>45622</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>45803.38633101852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>45629.35725694444</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>45805.65696759259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>44889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>45418</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>45742</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>45883.36519675926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>45883.34537037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>45807</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>45813</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>44557.42135416667</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>45807.47043981482</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>45807.40659722222</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>44925</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>45807.47040509259</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>45664</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>45807</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9885,7 +9885,7 @@
         <v>45742.42782407408</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>45742</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>45811</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45812.44833333333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>45811</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>45755</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>45889.53192129629</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>44974.38387731482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>45889.53162037037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         <v>45813.55248842593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>45890.63614583333</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>45818.71905092592</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>45818.36496527777</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>45817.59523148148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>45565.49291666667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>45817.38577546296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>45552</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>45894.71912037037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>45796</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>45553</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>45891.46913194445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44971</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>45893.65675925926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>45817.6778587963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>45678.66674768519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>45190.92549768519</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>45824</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>45824.38880787037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44956</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>45897</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44719.94283564815</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>45692.34452546296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>45898.53164351852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45898</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>45071</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>45898.42778935185</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>45448.9278125</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>45448.94540509259</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>45890</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45903.40694444445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>45904.34472222222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>45903.34480324074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>45903.36497685185</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>45903.36555555555</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45904.61540509259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44958</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45272</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45904.61569444444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44756.38809027777</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>45905.59423611111</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>45834.59436342592</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>45764.61490740741</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>45833.61688657408</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>45833.59679398148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>45629.3558449074</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>45852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>45834.55252314815</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>45908.53167824074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>45461</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>45057</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>45607.40678240741</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>45607.40694444445</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13706,7 +13706,7 @@
         <v>45840.67768518518</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>45840.67862268518</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>45840.46914351852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>44956.93971064815</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44979</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>45842.44846064815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>45846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>45897</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>45846.26190972222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>45912.42776620371</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>45843.36505787037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>45519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>45912.67747685185</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>45642</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>45912.65726851852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>45848.42844907408</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>45848.42857638889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>45847.6568287037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>45847.40707175926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>45847.40681712963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>45916.34527777778</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>45915</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>45849.4284837963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>45849.42844907408</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15164,7 +15164,7 @@
         <v>45852.53199074074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>45681.36523148148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>45916.40681712963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>45678.66665509259</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45678.66666666666</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45854.40681712963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>45854.38577546296</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>45469.92811342593</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>45855.40684027778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>45855</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>45916.44855324074</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>45855</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>45915.61606481481</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>45855</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16002,7 +16002,7 @@
         <v>45855</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16059,7 +16059,7 @@
         <v>45915.61515046296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>45855</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16178,7 +16178,7 @@
         <v>45916.49549768519</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>45855.53179398148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>45272</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>45642.63332175926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>45859.44861111111</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>45859.44880787037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>45917.42766203704</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>45917.42748842593</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>45917.92033564814</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>45125</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>45866.61515046296</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>45866.57357638889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>45866.49025462963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>45867</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>45845</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>45867.3653587963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>45182.92409722223</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>45845</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>45923.4805787037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>45614.69854166666</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>45867.36557870371</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45632</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>45632</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>45874.38578703703</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>45149</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>45874.5946875</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>45874.6445949074</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45642</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>45169.94084490741</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>45721.36486111111</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>45873</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>45198</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>45874.38576388889</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>45170</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44494</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>45874.64811342592</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>45874.42888888889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>45876.38582175926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>45876.4483912037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>45876.49122685185</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>45875.5525462963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>45876.49024305555</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>45876.51096064815</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45625.62136574074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>45876.49045138889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>45876.4909837963</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>45876.49138888889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45636</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>45877</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>45877.61532407408</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>45720.61486111111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>45877.61496527777</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19317,7 +19317,7 @@
         <v>45475</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>45712</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>45882.49097222222</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>45882.49106481481</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>45882</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>45882.49087962963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>45882.49069444444</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>45882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>45936.3863425926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>45936.40791666666</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>45936.40789351852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44376.93447916667</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>45771</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>45677.59814814815</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20140,7 +20140,7 @@
         <v>45013</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>45110</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>45938.678125</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>45937.63645833333</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45937.64037037037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45733.67770833334</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45244.96703703704</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45268.9262037037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20678,7 +20678,7 @@
         <v>45723.57409722222</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>45939.36525462963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45534</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>45111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>44431</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
         <v>45714.40652777778</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45944.56261574074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>45574</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45463</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>45539</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>45945.47358796297</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21355,7 +21355,7 @@
         <v>45946.61502314815</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>45705.3462037037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44417</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44568.92145833333</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>45740.84127314815</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>45740.67822916667</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44888</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>45953.69837962963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>45953.38614583333</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>45757.69819444444</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21950,7 +21950,7 @@
         <v>45954.36586805555</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>45036</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>45560.53184027778</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45561.34652777778</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>45239.9687962963</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45069</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>45582.38579861111</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>45959.57366898148</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22436,7 +22436,7 @@
         <v>45962.78836805555</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22493,7 +22493,7 @@
         <v>45965.59481481482</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>45966.34535879629</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>45966.34540509259</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>44979</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45351.9859375</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>45972.46931712963</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>45971.63633101852</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>45971</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>45971.40711805555</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>44994</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>45036</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23155,7 +23155,7 @@
         <v>45975.4071412037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>45975.61641203704</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>45098</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>45978</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>45975.34587962963</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>45978.40677083333</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>45975.49017361111</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>45978</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>45978</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>45610.67768518518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>45978</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>45978</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>45978</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>45975.34542824074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
         <v>45556.34417824074</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24045,7 +24045,7 @@
         <v>45978</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24102,7 +24102,7 @@
         <v>45977.6983912037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>45161.94466435185</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45980.57395833333</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
         <v>45980.57414351852</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>45979.34461805555</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>46010</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45980.40675925926</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>45586.32145833333</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24593,7 +24593,7 @@
         <v>45982.46956018519</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>45981.49009259259</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24717,7 +24717,7 @@
         <v>45981</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>45981.51090277778</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
         <v>45981.53181712963</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45981.38592592593</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>45180</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>45981</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>45982.34423611111</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25141,7 +25141,7 @@
         <v>45721</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25203,7 +25203,7 @@
         <v>45986.42753472222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25260,7 +25260,7 @@
         <v>45988</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         <v>45988</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25374,7 +25374,7 @@
         <v>45331</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>45988.40792824074</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>45988.38663194444</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25545,7 +25545,7 @@
         <v>45673.67822916667</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45075</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>45036.89533564815</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>45148.96259259259</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>45614</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>45993.40670138889</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25907,7 +25907,7 @@
         <v>45862</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25964,7 +25964,7 @@
         <v>45993.42767361111</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>45981</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         <v>45995</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>45996</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>45659</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>45672</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>46042.46931712963</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26383,7 +26383,7 @@
         <v>45674.57372685185</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26445,7 +26445,7 @@
         <v>46042.34465277778</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26507,7 +26507,7 @@
         <v>45672.43625</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>45729.36533564814</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>46029</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>46042.67120370371</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>46043.6028125</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>45799</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>45978</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>45677</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>46003</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>46003</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>46003.34439814815</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>45700.5734837963</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27226,7 +27226,7 @@
         <v>46036</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>46047.59396990741</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>45539</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>46045</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>46007.40666666667</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>45611</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>46007.44863425926</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>46007.46914351852</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>45747</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>46007.4487037037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>45755</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>45644</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44742</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>46007.44877314815</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>46009.46942129629</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>46010</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>45223.9649537037</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>46010.59421296296</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>45680</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>46009.36521990741</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28391,7 +28391,7 @@
         <v>46051.59449074074</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28453,7 +28453,7 @@
         <v>46051.59429398148</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>46051</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>45772.69824074074</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28639,7 +28639,7 @@
         <v>46054.53177083333</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         <v>45158.94190972222</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>46055.63590277778</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>46013.66325231481</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>45169.94112268519</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45740.81103009259</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>45880</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>46017.34442129629</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45735</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>46059</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>46059</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45771.36527777778</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29363,7 +29363,7 @@
         <v>46063.44837962963</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>44931.92638888889</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>45770.61537037037</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44748.94555555555</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>45202.9420949074</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>45520</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44974.38841435185</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>46072.61136574074</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>46030.47678240741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44888</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>45246.96853009259</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30015,7 +30015,7 @@
         <v>45399</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30072,7 +30072,7 @@
         <v>45429.9359375</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>45764</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44481</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>45642.6359837963</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>45392.95734953704</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>44900.95491898148</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>45547</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>46036.40693287037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44960</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44848</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>46036.67759259259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30734,7 +30734,7 @@
         <v>45565.49016203704</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>44931.92650462963</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>45586.32023148148</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>45153</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30977,7 +30977,7 @@
         <v>44980</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31034,7 +31034,7 @@
         <v>46038.46935185185</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>44410</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45562.55240740741</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31215,7 +31215,7 @@
         <v>45614</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45097</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44930.92725694444</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44942</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45600</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45566</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45611</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45190.92554398148</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45639.34640046296</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>45036</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>45448.94550925926</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31852,7 +31852,7 @@
         <v>45448.94559027778</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31914,7 +31914,7 @@
         <v>45356</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31971,7 +31971,7 @@
         <v>45770.67743055556</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>45351.98571759259</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>45351.98583333333</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44838</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>45253</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>45253</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>45055</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32390,7 +32390,7 @@
         <v>44524</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32452,7 +32452,7 @@
         <v>45664.41229166667</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32509,7 +32509,7 @@
         <v>45482.92789351852</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32566,7 +32566,7 @@
         <v>45516</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32623,7 +32623,7 @@
         <v>44889</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32680,7 +32680,7 @@
         <v>45142.92372685186</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32737,7 +32737,7 @@
         <v>45202</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32799,7 +32799,7 @@
         <v>45125</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32856,7 +32856,7 @@
         <v>45142.92407407407</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32913,7 +32913,7 @@
         <v>45764.59451388889</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32975,7 +32975,7 @@
         <v>45630</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33032,7 +33032,7 @@
         <v>45217</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33089,7 +33089,7 @@
         <v>45617</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33146,7 +33146,7 @@
         <v>44876</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33203,7 +33203,7 @@
         <v>45735</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33265,7 +33265,7 @@
         <v>45726.51075231482</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45223.96712962963</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33389,7 +33389,7 @@
         <v>45491</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33451,7 +33451,7 @@
         <v>45446.94887731481</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33513,7 +33513,7 @@
         <v>45693</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>45642</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33632,7 +33632,7 @@
         <v>45713.61494212963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33694,7 +33694,7 @@
         <v>45742.48995370371</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
         <v>45257.97371527777</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33818,7 +33818,7 @@
         <v>45574.51318287037</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44998</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>45315.9491087963</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33999,7 +33999,7 @@
         <v>45720.61511574074</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>45624</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>45253</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>45769</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>45769</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>45471.9444212963</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34356,7 +34356,7 @@
         <v>45103</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34413,7 +34413,7 @@
         <v>45778.34434027778</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34475,7 +34475,7 @@
         <v>45782</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34537,7 +34537,7 @@
         <v>45572.46914351852</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>45478.92837962963</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>45782</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34718,7 +34718,7 @@
         <v>45782</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34780,7 +34780,7 @@
         <v>45779.61490740741</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34842,7 +34842,7 @@
         <v>45782</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>45614</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>45779.49037037037</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35023,7 +35023,7 @@
         <v>45784</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35085,7 +35085,7 @@
         <v>45783.40668981482</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35147,7 +35147,7 @@
         <v>45783</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35209,7 +35209,7 @@
         <v>45785.65777777778</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>45562</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35333,7 +35333,7 @@
         <v>45789</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35390,7 +35390,7 @@
         <v>45789.63657407407</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35452,7 +35452,7 @@
         <v>45771.57355324074</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35514,7 +35514,7 @@
         <v>45792.42746527777</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35576,7 +35576,7 @@
         <v>45792.46936342592</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35638,7 +35638,7 @@
         <v>45485.38835648148</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35695,7 +35695,7 @@
         <v>44645</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35752,7 +35752,7 @@
         <v>45140</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35809,7 +35809,7 @@
         <v>45551</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35866,7 +35866,7 @@
         <v>45517</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35923,7 +35923,7 @@
         <v>45614</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35980,7 +35980,7 @@
         <v>45295</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36037,7 +36037,7 @@
         <v>45800.57395833333</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>45799</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36161,7 +36161,7 @@
         <v>45800.61635416667</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36223,7 +36223,7 @@
         <v>45800.67747685185</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36285,7 +36285,7 @@
         <v>45799</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36347,7 +36347,7 @@
         <v>45800.38581018519</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36409,7 +36409,7 @@
         <v>45803.5733912037</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>45803.55256944444</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36533,7 +36533,7 @@
         <v>45803.55297453704</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         <v>45803.5528125</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>

--- a/Översikt DOROTEA.xlsx
+++ b/Översikt DOROTEA.xlsx
@@ -575,7 +575,7 @@
         <v>45813</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>45800.51078703703</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>45412</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         <v>45785</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         <v>45614</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>45119</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>45629</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>45428</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>45119</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>44853</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45356</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>45848.61557870371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45453</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44957</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>45820.65403935185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>45225</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>45981.57350694444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>45202</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>45063</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>45890</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>45900.46912037037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45840.67800925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>45937.63671296297</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44902</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>45616.89516203704</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>45302</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>45629</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>44855</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>45491.39454861111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>45583</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45831</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>45103</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>45938.49196759259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>45534</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>45629</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>45624</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45622.59461805555</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>44878.6125462963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45198</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>46003</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44953</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>44526</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>45471</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>44509</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>44810.9431712963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44271</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44351</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>44351</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>44629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44834.76478009259</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44351</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>44482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44725</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44614</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>44859</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>44351</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         <v>44852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>44845</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>44851</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>44383</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44336</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44336</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>44337</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>44264.94361111111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>44587</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44336</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>44294</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>44351</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         <v>44465</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>44465.40667824074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44336</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>44482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>44465.4134375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>44838</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>45471</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>45734.55266203704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45330</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>45228</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>45228</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44761</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>45393</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>45198</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>45399</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>45385</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>45740.68304398148</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>45224.96391203703</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44910</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>45526</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45457.96494212963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>45245.92914351852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44824</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>45551.63643518519</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>45463.94417824074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>44956</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         <v>45448.94579861111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>45244.96695601852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>44860</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>44582.93300925926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>45140.96399305556</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>45140</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>45253</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
         <v>45505.95497685186</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44974</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>45505.95542824074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>45488.94804398148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>45169</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>45169.9409837963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>45169.94105324074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>45483.96839120371</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44484</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>45803.63585648148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>45622</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>45803.38633101852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>45629.35725694444</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>45805.65696759259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>44889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>45418</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>45742</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         <v>45883.36519675926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>45883.34537037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>45807</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>45813</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>44557.42135416667</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>45807.47043981482</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9585,7 +9585,7 @@
         <v>45807.40659722222</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>44925</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>45807.47040509259</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>45664</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>45807</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9885,7 +9885,7 @@
         <v>45742.42782407408</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>45742</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>45811</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45812.44833333333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>45811</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>45755</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>45889.53192129629</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>44974.38387731482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>45889.53162037037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         <v>45813.55248842593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>45890.63614583333</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>45818.71905092592</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>45818.36496527777</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>45817.59523148148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>45565.49291666667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>45817.38577546296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>45552</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>45894.71912037037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>45796</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>45553</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>45891.46913194445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44971</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>45893.65675925926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>45817.6778587963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>45678.66674768519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>45190.92549768519</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>45824</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>45824.38880787037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44956</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>45897</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>44719.94283564815</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>45692.34452546296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>45898.53164351852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45898</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>45071</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>45898.42778935185</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>45448.9278125</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>45448.94540509259</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>45890</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45903.40694444445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>45904.34472222222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>45903.34480324074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>45903.36497685185</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>45903.36555555555</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>45904.61540509259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>44958</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45272</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45904.61569444444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44756.38809027777</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>45905.59423611111</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>45834.59436342592</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>45764.61490740741</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>45833.61688657408</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>45833.59679398148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>45629.3558449074</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>45852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>45834.55252314815</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>45908.53167824074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>45461</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>45057</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>45607.40678240741</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13644,7 +13644,7 @@
         <v>45607.40694444445</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13706,7 +13706,7 @@
         <v>45840.67768518518</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>45840.67862268518</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>45840.46914351852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>44956.93971064815</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
         <v>44979</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>45842.44846064815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>45846</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>45897</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>45846.26190972222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>45912.42776620371</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>45843.36505787037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>45519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>45912.67747685185</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>45642</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>45912.65726851852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14611,7 +14611,7 @@
         <v>45848.42844907408</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>45848.42857638889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>45847.6568287037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>45847.40707175926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>45847.40681712963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>45916.34527777778</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>45915</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>45849.4284837963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>45849.42844907408</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15164,7 +15164,7 @@
         <v>45852.53199074074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>45681.36523148148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>45916.40681712963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>45678.66665509259</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45678.66666666666</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45854.40681712963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>45854.38577546296</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>45469.92811342593</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>45855.40684027778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>45855</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>45916.44855324074</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>45855</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>45915.61606481481</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>45855</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16002,7 +16002,7 @@
         <v>45855</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16059,7 +16059,7 @@
         <v>45915.61515046296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>45855</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16178,7 +16178,7 @@
         <v>45916.49549768519</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16240,7 +16240,7 @@
         <v>45855.53179398148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>45272</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>45642.63332175926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>45859.44861111111</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>45859.44880787037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>45917.42766203704</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>45917.42748842593</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>45917.92033564814</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>45125</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>45866.61515046296</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>45866.57357638889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>45866.49025462963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>45867</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>45845</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>45867.3653587963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>45182.92409722223</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>45845</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>45923.4805787037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>45614.69854166666</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>45867.36557870371</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45632</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>45632</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>45874.38578703703</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>45149</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>45874.5946875</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>45874.6445949074</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>45642</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>45169.94084490741</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>45721.36486111111</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>45873</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>45198</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>45874.38576388889</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>45170</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44494</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>45874.64811342592</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>45874.42888888889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>45876.38582175926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>45876.4483912037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>45876.49122685185</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>45875.5525462963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>45876.49024305555</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>45876.51096064815</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45625.62136574074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>45876.49045138889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>45876.4909837963</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18945,7 +18945,7 @@
         <v>45876.49138888889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19007,7 +19007,7 @@
         <v>45636</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>45877</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>45877.61532407408</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>45720.61486111111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>45877.61496527777</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19317,7 +19317,7 @@
         <v>45475</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>45712</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>45882.49097222222</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>45882.49106481481</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>45882</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>45882.49087962963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>45882.49069444444</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>45882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>45936.3863425926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>45936.40791666666</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>45936.40789351852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44376.93447916667</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>45771</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20083,7 +20083,7 @@
         <v>45677.59814814815</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20140,7 +20140,7 @@
         <v>45013</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>45110</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>45938.678125</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>45937.63645833333</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45937.64037037037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>45733.67770833334</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45244.96703703704</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45268.9262037037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20678,7 +20678,7 @@
         <v>45723.57409722222</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>45939.36525462963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>45534</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>45111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         <v>44431</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
         <v>45714.40652777778</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45944.56261574074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>45574</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45463</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>45539</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>45945.47358796297</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21355,7 +21355,7 @@
         <v>45946.61502314815</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>45705.3462037037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>44417</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44568.92145833333</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>45740.84127314815</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>45740.67822916667</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44888</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>45953.69837962963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>45953.38614583333</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>45757.69819444444</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21950,7 +21950,7 @@
         <v>45954.36586805555</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>45036</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>45560.53184027778</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45561.34652777778</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>45239.9687962963</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45069</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>45582.38579861111</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>45959.57366898148</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22436,7 +22436,7 @@
         <v>45962.78836805555</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22493,7 +22493,7 @@
         <v>45965.59481481482</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>45966.34535879629</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>45966.34540509259</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>44979</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45351.9859375</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>45972.46931712963</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
         <v>45971.63633101852</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>45971</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>45971.40711805555</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>44994</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>45036</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23155,7 +23155,7 @@
         <v>45975.4071412037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>45975.61641203704</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>45098</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>45978</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>45975.34587962963</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>45978.40677083333</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>45975.49017361111</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>45978</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>45978</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>45610.67768518518</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>45978</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>45978</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>45978</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>45975.34542824074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
         <v>45556.34417824074</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24045,7 +24045,7 @@
         <v>45978</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24102,7 +24102,7 @@
         <v>45977.6983912037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>45161.94466435185</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45980.57395833333</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
         <v>45980.57414351852</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>45979.34461805555</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>46010</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>45980.40675925926</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>45586.32145833333</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24593,7 +24593,7 @@
         <v>45982.46956018519</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>45981.49009259259</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24717,7 +24717,7 @@
         <v>45981</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>45981.51090277778</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
         <v>45981.53181712963</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45981.38592592593</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>45180</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>45981</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>45982.34423611111</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25141,7 +25141,7 @@
         <v>45721</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25203,7 +25203,7 @@
         <v>45986.42753472222</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25260,7 +25260,7 @@
         <v>45988</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         <v>45988</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25374,7 +25374,7 @@
         <v>45331</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25431,7 +25431,7 @@
         <v>45988.40792824074</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25488,7 +25488,7 @@
         <v>45988.38663194444</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25545,7 +25545,7 @@
         <v>45673.67822916667</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>45075</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>45036.89533564815</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>45148.96259259259</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>45614</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>45993.40670138889</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25907,7 +25907,7 @@
         <v>45862</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25964,7 +25964,7 @@
         <v>45993.42767361111</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>45981</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         <v>45995</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>45996</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>45659</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>45672</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>46042.46931712963</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26383,7 +26383,7 @@
         <v>45674.57372685185</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26445,7 +26445,7 @@
         <v>46042.34465277778</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26507,7 +26507,7 @@
         <v>45672.43625</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>45729.36533564814</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>46029</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>46042.67120370371</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26750,7 +26750,7 @@
         <v>46043.6028125</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         <v>45799</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>45978</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>45677</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>46003</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         <v>46003</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27102,7 +27102,7 @@
         <v>46003.34439814815</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>45700.5734837963</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27226,7 +27226,7 @@
         <v>46036</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>46047.59396990741</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>45539</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>46045</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>46007.40666666667</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>45611</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>46007.44863425926</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>46007.46914351852</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>45747</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>46007.4487037037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>45755</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>45644</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44742</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>46007.44877314815</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>46009.46942129629</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>46010</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28148,7 +28148,7 @@
         <v>45223.9649537037</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28210,7 +28210,7 @@
         <v>46010.59421296296</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>45680</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>46009.36521990741</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28391,7 +28391,7 @@
         <v>46051.59449074074</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28453,7 +28453,7 @@
         <v>46051.59429398148</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>46051</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>45772.69824074074</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28639,7 +28639,7 @@
         <v>46054.53177083333</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         <v>45158.94190972222</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>46055.63590277778</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>46013.66325231481</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>45169.94112268519</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45740.81103009259</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>45880</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>46017.34442129629</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45735</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>46059</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>46059</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45771.36527777778</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29363,7 +29363,7 @@
         <v>46063.44837962963</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>44931.92638888889</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>45770.61537037037</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44748.94555555555</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>45202.9420949074</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>45520</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44974.38841435185</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>46072.61136574074</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>46030.47678240741</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>44888</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>45246.96853009259</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30015,7 +30015,7 @@
         <v>45399</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30072,7 +30072,7 @@
         <v>45429.9359375</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>45764</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44481</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>45642.6359837963</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>45392.95734953704</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>44900.95491898148</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>45547</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>46036.40693287037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44960</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44848</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>46036.67759259259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30734,7 +30734,7 @@
         <v>45565.49016203704</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>44931.92650462963</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>45586.32023148148</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>45153</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30977,7 +30977,7 @@
         <v>44980</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31034,7 +31034,7 @@
         <v>46038.46935185185</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>44410</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45562.55240740741</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31215,7 +31215,7 @@
         <v>45614</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45097</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>44930.92725694444</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44942</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45600</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45566</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45611</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45190.92554398148</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45639.34640046296</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>45036</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>45448.94550925926</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31852,7 +31852,7 @@
         <v>45448.94559027778</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31914,7 +31914,7 @@
         <v>45356</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31971,7 +31971,7 @@
         <v>45770.67743055556</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>45351.98571759259</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>45351.98583333333</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44838</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>45253</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>45253</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>45055</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32390,7 +32390,7 @@
         <v>44524</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32452,7 +32452,7 @@
         <v>45664.41229166667</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32509,7 +32509,7 @@
         <v>45482.92789351852</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32566,7 +32566,7 @@
         <v>45516</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32623,7 +32623,7 @@
         <v>44889</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32680,7 +32680,7 @@
         <v>45142.92372685186</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32737,7 +32737,7 @@
         <v>45202</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32799,7 +32799,7 @@
         <v>45125</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32856,7 +32856,7 @@
         <v>45142.92407407407</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32913,7 +32913,7 @@
         <v>45764.59451388889</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32975,7 +32975,7 @@
         <v>45630</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33032,7 +33032,7 @@
         <v>45217</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33089,7 +33089,7 @@
         <v>45617</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33146,7 +33146,7 @@
         <v>44876</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33203,7 +33203,7 @@
         <v>45735</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33265,7 +33265,7 @@
         <v>45726.51075231482</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45223.96712962963</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33389,7 +33389,7 @@
         <v>45491</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33451,7 +33451,7 @@
         <v>45446.94887731481</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33513,7 +33513,7 @@
         <v>45693</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>45642</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33632,7 +33632,7 @@
         <v>45713.61494212963</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33694,7 +33694,7 @@
         <v>45742.48995370371</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
         <v>45257.97371527777</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33818,7 +33818,7 @@
         <v>45574.51318287037</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>44998</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>45315.9491087963</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33999,7 +33999,7 @@
         <v>45720.61511574074</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>45624</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>45253</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>45769</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>45769</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>45471.9444212963</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34356,7 +34356,7 @@
         <v>45103</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34413,7 +34413,7 @@
         <v>45778.34434027778</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34475,7 +34475,7 @@
         <v>45782</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34537,7 +34537,7 @@
         <v>45572.46914351852</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34599,7 +34599,7 @@
         <v>45478.92837962963</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>45782</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34718,7 +34718,7 @@
         <v>45782</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34780,7 +34780,7 @@
         <v>45779.61490740741</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34842,7 +34842,7 @@
         <v>45782</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>45614</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>45779.49037037037</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35023,7 +35023,7 @@
         <v>45784</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35085,7 +35085,7 @@
         <v>45783.40668981482</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35147,7 +35147,7 @@
         <v>45783</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35209,7 +35209,7 @@
         <v>45785.65777777778</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>45562</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35333,7 +35333,7 @@
         <v>45789</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35390,7 +35390,7 @@
         <v>45789.63657407407</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35452,7 +35452,7 @@
         <v>45771.57355324074</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35514,7 +35514,7 @@
         <v>45792.42746527777</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35576,7 +35576,7 @@
         <v>45792.46936342592</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35638,7 +35638,7 @@
         <v>45485.38835648148</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35695,7 +35695,7 @@
         <v>44645</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35752,7 +35752,7 @@
         <v>45140</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35809,7 +35809,7 @@
         <v>45551</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35866,7 +35866,7 @@
         <v>45517</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35923,7 +35923,7 @@
         <v>45614</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35980,7 +35980,7 @@
         <v>45295</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36037,7 +36037,7 @@
         <v>45800.57395833333</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>45799</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36161,7 +36161,7 @@
         <v>45800.61635416667</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36223,7 +36223,7 @@
         <v>45800.67747685185</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36285,7 +36285,7 @@
         <v>45799</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36347,7 +36347,7 @@
         <v>45800.38581018519</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36409,7 +36409,7 @@
         <v>45803.5733912037</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>45803.55256944444</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36533,7 +36533,7 @@
         <v>45803.55297453704</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         <v>45803.5528125</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
